--- a/biology/Botanique/Quararibea_cordata/Quararibea_cordata.xlsx
+++ b/biology/Botanique/Quararibea_cordata/Quararibea_cordata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La sapote sud-américaine (Quararibea cordata syn. Matisia cordata), aussi connue en espagnol sous le nom chupa chupa, est une espèce de plantes à fleurs de la famille des Malvaceae. C'est un arbre fruitier de 40 à 45 mètres de haut qui pousse dans les forêts tropicales entre 1000 et 2000 mètres au dessus du niveau de la mer au Pérou, en Équateur, en Colombie et au Brésil.
 Dans les plantations, on le laisse croître jusqu'à 12 à 30 mètres ; il préfère un sol fertile, humide mais non inondé. Il pousse bien en association avec des avocatiers parce que les deux espèces ont les mêmes besoins en termes de sol et que la sapote fournit l'ombre nécessaire aux avocats.
